--- a/WeightageSheet.xlsx
+++ b/WeightageSheet.xlsx
@@ -52,7 +52,7 @@
     <t>Total (in %)</t>
   </si>
   <si>
-    <t>institutional</t>
+    <t>institution</t>
   </si>
   <si>
     <t>Name, Registration</t>
